--- a/WandaVision.xlsx
+++ b/WandaVision.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/ricardorr7_al_insper_edu_br/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riywa\Desktop\Ciencia_de_dados\Projeto1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EDC26BA-3940-4C56-92E0-127E2189E507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F35A44-6437-4345-A68C-B0AFB0F808FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -132,18 +132,6 @@
 injusto isso ai</t>
   </si>
   <si>
-    <t>@hey_mika isso é muito triste, a cobertura que vocês fizeram de wandavision foi maravilhosa, completa, cheia de referências externas pra quem não manjava de mcu. @disneyplusbr pelo amor de deus véi.</t>
-  </si>
-  <si>
-    <t>@hey_mika quem perde são eles, porque o canal que eu uso pra ver review de série da @marvelbr / @disneyplusbr é o de vocês! a cobertura de wandavision foi 10/10!</t>
-  </si>
-  <si>
-    <t>@hey_mika só por curiosidade, essa série vai receber review como na wandavision?</t>
-  </si>
-  <si>
-    <t>@hey_mika voces fazem uma cobertura incrível mikannn, desde watchman, até wandavision eu conto os dias pros reviews e pras teorias @hey_mika @michelarouca 🥺🥺🥺 https://t.co/n9xwr0p3d3</t>
-  </si>
-  <si>
     <t>@hollwnder os de wandavision foi tudo assim que ódio</t>
   </si>
   <si>
@@ -658,48 +646,6 @@
   </si>
   <si>
     <t>quando será que irei superar wandavision...</t>
-  </si>
-  <si>
-    <t>quanto nosso gosto pra série é parecido? 
-10% grey's anatomy
-10% teen wolf
-10% the originals
-10% the umbrella academy
-10% wandavision
-10% maluco do pedaço
-10% outer banks
-10% o gambito da rainha
-10% bridgertons 
-10% love101 
-10% lupin
-10% dark 
-kibei</t>
-  </si>
-  <si>
-    <t>quanto nosso gosto pra séries é parecido?
-10% —teen wolf
-10% —breaking bad 
-10% —todo mundo odeia o chris
-10% —lúcifer 
-10% —flash 
-10% —arrow
-10% —wandavision
-10% —brooklyn nine-nine
-10% —stranger things
-10% —the 100</t>
-  </si>
-  <si>
-    <t>quanto nosso gosto pra séries é parecido?
-10% — euphoria
-10% — pll
-10% — sense8
-10% — o gambito da rainha
-10% — greys 
-10% — big mouth
-10% — disque amiga para matar 
-10% — wandavision
-10% — glee
-10% — umbrella academy https://t.co/ssm5nlkt2h</t>
   </si>
   <si>
     <t>quanto nosso gosto pra séries é parecido?
@@ -718,34 +664,6 @@
   </si>
   <si>
     <t>quanto nosso gosto pra séries é parecido?
-10% — peaky blinders 
-10% — lucifer
-10% — the witcher
-10% — a ordem
-10% — wandavision 
-10% — rick and morty
-10% — desencanto
-10% — big mouth
-10% — gambito da rainha
-10% — the umbrella academy
-10% — the 100 https://t.co/xgnxrsvnpr</t>
-  </si>
-  <si>
-    <t>quanto nosso gosto pra séries é parecido?
-10% — the oficce
-10% — friends
-10% — la casa de papel
-10% — wandavision 
-10% — o gambito da rainha
-10% — the good place
-10% — b99
-10% — peaky binders
-10% — sherlock 
-10% — flash 
-10% — grey's</t>
-  </si>
-  <si>
-    <t>quanto nosso gosto pra séries é parecido?
 10% — the walking dead
 10% — la casa de papel
 10% — supernatural 
@@ -790,10 +708,6 @@
 lady ga…</t>
   </si>
   <si>
-    <t>rt @arte_misis: "isso é magia do caos, wanda. o que faz de você... a feiticeira escarlate"
-#fanart #wandavision https://t.co/ghhlyfngi9</t>
-  </si>
-  <si>
     <t>rt @blurry_who: eu te amo evan peters nos bastidores de wandavision eu te amo https://t.co/ejuyly1g5s</t>
   </si>
   <si>
@@ -843,24 +757,13 @@
     <t>rt @evelyneiiiot: a mikannn e michel sempre fazem as melhores coberturas, é só ver o trabalho com watchmen, wandavision, got e westworld sa…</t>
   </si>
   <si>
-    <t>rt @gothamsx: galera!! minha primeira matéria saiu e obvio que eu iria falar da mamãe da marvel, wandavision.
- https://t.co/z6xpzkp2dp</t>
-  </si>
-  <si>
     <t>rt @hennigfs: que sdd meu deus wandavision volta pra mim https://t.co/nbsqjo0wqc</t>
-  </si>
-  <si>
-    <t>rt @hey_mika: eu e o @seriemaniacostv fizemos uma cobertura super legal de wandavision, recebemos vários elogios, mas acho que a assessoria…</t>
   </si>
   <si>
     <t>rt @iclaquete: um 2021 baseado em passar pano pra personagens 
 wandavision// ginny e georgia// força juliette// logan paul// voldemort htt…</t>
   </si>
   <si>
-    <t>rt @jinturia: marvel obrigada pelos mimos
-#wandavision #loki #disneyplus https://t.co/zukewirz2s</t>
-  </si>
-  <si>
     <t>rt @joaopcorisco: tópico: episódios 8 e 9 de wandavision melhores q muito filme de herói por ai  https://t.co/1odjnu5fw1</t>
   </si>
   <si>
@@ -887,31 +790,6 @@
   <si>
     <t>rt @nacaomarvell: ela é perfeita, ela.
 teyonah parris nos bastidores de #wandavision https://t.co/gf7tzumtqo</t>
-  </si>
-  <si>
-    <t>rt @nacaomarvell: em #wandavision monica, billy, tommy, ralph e darcy tentariam roubar o darkhold do porão. lá descobriríamos que o coelho…</t>
-  </si>
-  <si>
-    <t>rt @nacaomarvell: família é para sempre #wandavision https://t.co/xz2g9kyk0n</t>
-  </si>
-  <si>
-    <t>rt @nacaomarvell: mais que amigas, friends. #wandavision https://t.co/yzz4xfmce4</t>
-  </si>
-  <si>
-    <t>rt @nacaomarvell: o kevin feige não confirmou a 2ª temporada de #wandavision.
-“[...] se tivermos uma segunda temporada de wandavision, os…</t>
-  </si>
-  <si>
-    <t>rt @nacaomarvell: os patrões hitaram mesmoooo 🥂🏅
-segundo dados do site @parrotanalytics, durante outra semana, #wandavision permaneceu com…</t>
-  </si>
-  <si>
-    <t>rt @nacaomarvell: prepara a carteira 🤑
-a @ew reuniu em uma matéria os novos produtos para #wandavision
-via: https://t.co/rbom2ukboo (1/2)…</t>
-  </si>
-  <si>
-    <t>rt @nacaomarvell: wanda em #wandavision (via: @eolsenarchive) https://t.co/apmnokdnur</t>
   </si>
   <si>
     <t>rt @nacaomarvell: 🚨 trailer de assembled: the making of #wandavision, o documentário dos bastidores da série que estréia amanhã.
@@ -946,15 +824,8 @@
     <t>rt @operantemarvel: ainda sinto essa dor.... #wandavision https://t.co/1wbep27gzr</t>
   </si>
   <si>
-    <t>rt @operantemarvel: apreciação #monicarambeau já se ajoelharam perante ela hoje ? 
-#wandavision https://t.co/fb3kthf9nd</t>
-  </si>
-  <si>
     <t>rt @operantemarvel: galera nos vamos comentar &amp;gt;tudo&amp;lt; sobre #falconandwintersoldier como fazíamos com #wandavision 
 nos sigam e ative as not…</t>
-  </si>
-  <si>
-    <t>rt @operantemarvel: 🎉 amanhã teremos entre nós a segunda série da marvel studios, claro que vai arrasar como wandavision ! ansiedade a 1000…</t>
   </si>
   <si>
     <t>rt @padfootmione: há uma semana atrás eu e o fandom todo de #wandavision estávamos surtando com essa cena que arrepiou todo os pelos. https…</t>
@@ -1813,12 +1684,83 @@
 ★★★★★
 que inferno eu tô chorando marvel eu te odeio</t>
   </si>
+  <si>
+    <t>a agatha dizendo que a wanda é a feiticeira escarlate, e que na verdade ela era para ser apenas um mito...
+marvel você não erra nem me decepciona❤🥰
+#wandavision</t>
+  </si>
+  <si>
+    <t>wandavision serviu pra me mostrar o obvio: wanda eh uma das minhas favs do mcu</t>
+  </si>
+  <si>
+    <t>stan lee acabou com qualquer um quando fez os quadrinhos da wanda que agora foram transformados em wandavision. 
+gente, é triste demais</t>
+  </si>
+  <si>
+    <t>terminei wandavision e só digo que a wanda não merecia tanto sofrimento</t>
+  </si>
+  <si>
+    <t>wandavision é perfeito finalmente consegui assistir</t>
+  </si>
+  <si>
+    <t>wandavision é perfeito 😌</t>
+  </si>
+  <si>
+    <t>wandavision é uma boa serie a respeito de luto, ate porque isso foi bem explorado na trama, ja o resto eu não liguei tanto, ja que algumas coisas eu achei meio, como por exemplo não explorarem tanto o personagem do visão nhee. https://t.co/wbbpos2e4j</t>
+  </si>
+  <si>
+    <t>terminei wandavision, to com depressão</t>
+  </si>
+  <si>
+    <t>não tô entendendo nada de wandavision mas é bom</t>
+  </si>
+  <si>
+    <t>não sai da cabeça a musiquinha de wandavision</t>
+  </si>
+  <si>
+    <t>tô vendo wandavision com meu amigo e fiquei triste pq ele tá no ep 5 e eu fiquei triste pq eles tao em família bonitinhos e eu lembrei oq acontece no final</t>
+  </si>
+  <si>
+    <t>to vendo wandavision com os meninos e to amando</t>
+  </si>
+  <si>
+    <t>rt @dehsenh0s: chorei que nem uma condenada
+esse final de wandavision acabou comigo 🥺
+#wandavisionfinale https://t.co/dpfcqd7vpr</t>
+  </si>
+  <si>
+    <t>feliz aqui que eu sempre acreditei no potencial dessa série enquanto todos meus amigos só sabiam puxar saco de wandavision (que acabou nem sendo isso tudo rs). https://t.co/r4mrzlro32</t>
+  </si>
+  <si>
+    <t>fui ver um vídeo de wandavision no ttk e sai com depressao</t>
+  </si>
+  <si>
+    <t>n acredito q sonhei com um final de wandavision melhor</t>
+  </si>
+  <si>
+    <t>@mrsviggi1 wandavision é perfeito melhor do ano</t>
+  </si>
+  <si>
+    <t>wandavision perfeição</t>
+  </si>
+  <si>
+    <t>eu antes de wandavision preferia a dc mas acho q eu tinha um leve problema em gostar demais de x personagens da dc porém agora aceito a marvel supremacy</t>
+  </si>
+  <si>
+    <t>aí eu tô amando wandavision e isso</t>
+  </si>
+  <si>
+    <t>terminei wandavision ontem e caraca... que série perfeita. me surpreendeu muito</t>
+  </si>
+  <si>
+    <t>só consegui acabar wandavision nessa magrudada e confesso que a série me surpreendeu. marvel mandou bem demais.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2213,19 +2155,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2233,19 +2175,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <f>AVERAGE(B2:B301)</f>
-        <v>0.38333333333333336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2253,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2261,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2269,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2277,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2285,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2293,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2301,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2309,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2317,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2325,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2333,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2341,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2349,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2357,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2365,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2373,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2381,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2389,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2397,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2405,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2413,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2421,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2429,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2437,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2445,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2453,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2461,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2469,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2477,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2485,23 +2423,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2509,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2517,23 +2455,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2541,15 +2479,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2557,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2565,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2573,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2581,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2589,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2597,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2605,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2613,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2621,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2629,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2637,15 +2575,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2653,15 +2591,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2669,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2677,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2685,15 +2623,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2701,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2709,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2717,15 +2655,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2733,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2741,23 +2679,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2765,15 +2703,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2781,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2789,1857 +2727,1857 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>481</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>101</v>
       </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>103</v>
       </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>104</v>
       </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>109</v>
       </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>110</v>
       </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>111</v>
       </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>112</v>
       </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>113</v>
       </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>114</v>
       </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>115</v>
       </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>116</v>
       </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>117</v>
       </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>118</v>
       </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>119</v>
       </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>120</v>
       </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>122</v>
       </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>124</v>
       </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>126</v>
       </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>127</v>
       </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>128</v>
       </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>130</v>
       </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>131</v>
       </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>132</v>
       </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>133</v>
       </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>134</v>
       </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>135</v>
       </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>136</v>
       </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>138</v>
       </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>139</v>
       </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>140</v>
       </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>141</v>
       </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>142</v>
       </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>143</v>
       </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>144</v>
       </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>145</v>
       </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>146</v>
       </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>147</v>
       </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>148</v>
       </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>149</v>
       </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>150</v>
       </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>151</v>
       </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>152</v>
       </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>153</v>
       </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>154</v>
       </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>155</v>
       </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>156</v>
       </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>157</v>
       </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>158</v>
       </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>159</v>
       </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>160</v>
       </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>161</v>
       </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>162</v>
       </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>163</v>
       </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>164</v>
       </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>165</v>
       </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>166</v>
       </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>167</v>
       </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>168</v>
       </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>169</v>
       </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>170</v>
       </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>171</v>
       </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>172</v>
       </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>173</v>
       </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>174</v>
       </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>175</v>
       </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>176</v>
       </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>177</v>
       </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>178</v>
       </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>179</v>
       </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>180</v>
       </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>181</v>
       </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>182</v>
       </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>183</v>
       </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>184</v>
       </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>185</v>
       </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>186</v>
       </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>187</v>
       </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>188</v>
       </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>492</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>493</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>494</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>189</v>
       </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>495</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>496</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>190</v>
       </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>191</v>
       </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>192</v>
       </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>193</v>
       </c>
-      <c r="B193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>194</v>
       </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>195</v>
       </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>196</v>
       </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>197</v>
       </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>497</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>198</v>
       </c>
-      <c r="B198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>199</v>
       </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>200</v>
       </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>201</v>
       </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>202</v>
       </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>203</v>
       </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>204</v>
       </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>205</v>
       </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>206</v>
       </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>207</v>
       </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>208</v>
       </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>209</v>
       </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>210</v>
       </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>500</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>211</v>
       </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>501</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>212</v>
       </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>499</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>213</v>
       </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>214</v>
       </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>215</v>
       </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>216</v>
       </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>217</v>
       </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>218</v>
       </c>
-      <c r="B218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>219</v>
       </c>
-      <c r="B219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>220</v>
       </c>
-      <c r="B220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>221</v>
       </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>222</v>
       </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>223</v>
       </c>
-      <c r="B223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>224</v>
       </c>
-      <c r="B224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>225</v>
       </c>
-      <c r="B225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>226</v>
       </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>227</v>
       </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>228</v>
       </c>
-      <c r="B228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>229</v>
       </c>
-      <c r="B229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>230</v>
       </c>
-      <c r="B230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>498</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>231</v>
       </c>
-      <c r="B231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>502</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>232</v>
       </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>233</v>
       </c>
-      <c r="B233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="s">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>234</v>
       </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>235</v>
       </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>236</v>
       </c>
-      <c r="B236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>237</v>
       </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>238</v>
       </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>239</v>
       </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>240</v>
       </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>241</v>
       </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>242</v>
       </c>
-      <c r="B242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>243</v>
       </c>
-      <c r="B243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>244</v>
       </c>
-      <c r="B244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>245</v>
       </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>246</v>
       </c>
-      <c r="B246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>247</v>
       </c>
-      <c r="B247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="s">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>248</v>
       </c>
-      <c r="B248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>249</v>
       </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>250</v>
       </c>
-      <c r="B250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>483</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>251</v>
       </c>
-      <c r="B251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>252</v>
       </c>
-      <c r="B252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" t="s">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>253</v>
       </c>
-      <c r="B253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>254</v>
       </c>
-      <c r="B254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>255</v>
       </c>
-      <c r="B255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>256</v>
       </c>
-      <c r="B256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>257</v>
       </c>
-      <c r="B257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" t="s">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>484</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>258</v>
       </c>
-      <c r="B258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>259</v>
       </c>
-      <c r="B259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" t="s">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>260</v>
       </c>
-      <c r="B260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>261</v>
       </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>262</v>
       </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>263</v>
       </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>264</v>
       </c>
-      <c r="B264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" t="s">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>265</v>
       </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="s">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>266</v>
       </c>
-      <c r="B266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>267</v>
       </c>
-      <c r="B267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>268</v>
       </c>
-      <c r="B268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>269</v>
       </c>
-      <c r="B269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" t="s">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>270</v>
       </c>
-      <c r="B270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="s">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
         <v>271</v>
       </c>
-      <c r="B271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>272</v>
       </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>273</v>
       </c>
-      <c r="B273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" t="s">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>274</v>
       </c>
-      <c r="B274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" t="s">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>275</v>
       </c>
-      <c r="B275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" t="s">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>276</v>
       </c>
-      <c r="B276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" t="s">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>277</v>
       </c>
-      <c r="B277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" t="s">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>482</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>278</v>
       </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>279</v>
       </c>
-      <c r="B279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" t="s">
-        <v>280</v>
-      </c>
-      <c r="B280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" t="s">
-        <v>281</v>
-      </c>
-      <c r="B281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" t="s">
-        <v>282</v>
-      </c>
-      <c r="B282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" t="s">
-        <v>283</v>
-      </c>
-      <c r="B283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" t="s">
-        <v>284</v>
-      </c>
-      <c r="B284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" t="s">
-        <v>285</v>
-      </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" t="s">
-        <v>286</v>
-      </c>
-      <c r="B286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
-        <v>287</v>
-      </c>
-      <c r="B287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" t="s">
-        <v>288</v>
-      </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" t="s">
-        <v>289</v>
-      </c>
-      <c r="B289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" t="s">
-        <v>290</v>
-      </c>
-      <c r="B290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" t="s">
-        <v>291</v>
-      </c>
-      <c r="B291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" t="s">
-        <v>292</v>
-      </c>
-      <c r="B292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" t="s">
-        <v>293</v>
-      </c>
-      <c r="B293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" t="s">
-        <v>294</v>
-      </c>
       <c r="B294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>295</v>
+        <v>485</v>
       </c>
       <c r="B295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>296</v>
+        <v>486</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>297</v>
+        <v>487</v>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>298</v>
+        <v>488</v>
       </c>
       <c r="B298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>299</v>
+        <v>489</v>
       </c>
       <c r="B299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>300</v>
+        <v>490</v>
       </c>
       <c r="B300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>301</v>
+        <v>491</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A301">
-    <sortCondition ref="A1:A301"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C302">
+    <sortCondition ref="A218:A302"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4647,1625 +4585,1621 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>302</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>303</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>AVERAGE(B:B)</f>
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>304</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>305</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>306</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>307</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>308</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>309</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>310</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>311</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>312</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>313</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>314</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>315</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>316</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>317</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>318</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>319</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>320</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>321</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>322</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>323</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>324</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>325</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>326</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>327</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>328</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>329</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>330</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>331</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>332</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>333</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>334</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>335</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>336</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>337</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>338</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>339</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>340</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>341</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>342</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>343</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>344</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>345</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>346</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>347</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>348</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>349</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>350</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>351</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>352</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>353</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>354</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>355</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>356</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>357</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>358</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>359</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>360</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>361</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>362</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>363</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>364</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>365</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>366</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>367</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>368</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>369</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>370</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>371</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>372</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>373</v>
       </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>374</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>375</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>376</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>377</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>378</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>379</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>380</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>381</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>382</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>383</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>384</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>385</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>386</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>387</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>388</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>389</v>
       </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>390</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>391</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>392</v>
       </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>393</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>394</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>395</v>
       </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>396</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>397</v>
       </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>398</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>399</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>400</v>
       </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>401</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>402</v>
       </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>403</v>
       </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>404</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>405</v>
       </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>406</v>
       </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>407</v>
       </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>408</v>
       </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>409</v>
       </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>410</v>
       </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>411</v>
       </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>412</v>
       </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>413</v>
       </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>414</v>
       </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>415</v>
       </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>416</v>
       </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>417</v>
       </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>418</v>
       </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>419</v>
       </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>420</v>
       </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>421</v>
       </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>422</v>
       </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>423</v>
       </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>424</v>
       </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>425</v>
       </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>426</v>
       </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>427</v>
       </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>428</v>
       </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>429</v>
       </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>430</v>
       </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>431</v>
       </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>432</v>
       </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>433</v>
       </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>434</v>
       </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>435</v>
       </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>436</v>
       </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>437</v>
       </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>438</v>
       </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>439</v>
       </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>440</v>
       </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>441</v>
       </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>442</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>443</v>
       </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>444</v>
       </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>445</v>
       </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>446</v>
       </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>447</v>
       </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>448</v>
       </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>449</v>
       </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>450</v>
       </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>451</v>
       </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>452</v>
       </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>453</v>
       </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>454</v>
       </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>455</v>
       </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>456</v>
       </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>457</v>
       </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>458</v>
       </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>459</v>
       </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>460</v>
       </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>461</v>
       </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>462</v>
       </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>463</v>
       </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>464</v>
       </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>465</v>
       </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>466</v>
       </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>467</v>
       </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>468</v>
       </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>469</v>
       </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>470</v>
       </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>471</v>
       </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>472</v>
       </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>473</v>
       </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>474</v>
       </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>475</v>
       </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>476</v>
       </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>477</v>
       </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>478</v>
       </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>479</v>
       </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>480</v>
-      </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
-        <v>481</v>
-      </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>482</v>
-      </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>483</v>
-      </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>484</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>485</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>486</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>487</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>488</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
-        <v>489</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>490</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
-        <v>491</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
-        <v>492</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
-        <v>493</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
-        <v>494</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
-        <v>495</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
-        <v>496</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
-        <v>497</v>
-      </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
-        <v>498</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
-        <v>499</v>
-      </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
-        <v>500</v>
-      </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
-        <v>501</v>
-      </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
-        <v>502</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -6280,6 +6214,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008270B9C3304188429EFDB2E507900750" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="439de3cbc1f4f6703c41748475824e6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f06a68fc-ed8b-47cc-b084-1990e39abd28" xmlns:ns4="39b056dd-27ae-4f38-bd74-ea825229b6ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb7f5b0e4c42a65754678d114ebd8305" ns3:_="" ns4:_="">
     <xsd:import namespace="f06a68fc-ed8b-47cc-b084-1990e39abd28"/>
@@ -6476,7 +6416,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6485,20 +6425,38 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12F574CB-DD2F-409E-886F-74C32C1E4938}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FDC5507-8E0D-4BE2-86EE-C2F419E5DEF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E59E816-EED6-4EBD-8DDA-C76E45C17171}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12F574CB-DD2F-409E-886F-74C32C1E4938}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f06a68fc-ed8b-47cc-b084-1990e39abd28"/>
+    <ds:schemaRef ds:uri="39b056dd-27ae-4f38-bd74-ea825229b6ba"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FDC5507-8E0D-4BE2-86EE-C2F419E5DEF0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E59E816-EED6-4EBD-8DDA-C76E45C17171}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WandaVision.xlsx
+++ b/WandaVision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riywa\Desktop\Ciencia_de_dados\Projeto1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F35A44-6437-4345-A68C-B0AFB0F808FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455E7EFB-4F37-4DFA-822B-CA5968D00FFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -49,10 +49,6 @@
     <t>@_casthr li que o diretor disse que será totalmente o oposto de wandavision. não sei o que esperar assim, de verdade</t>
   </si>
   <si>
-    <t>@_mbheart foi aqui ó
-https://t.co/gg4lulxgqf</t>
-  </si>
-  <si>
     <t>@_pedrolopss dark e wandavision, até pq são as únicas séries que eu tive ânimo de terminar kkkkk</t>
   </si>
   <si>
@@ -1754,6 +1750,10 @@
   </si>
   <si>
     <t>só consegui acabar wandavision nessa magrudada e confesso que a série me surpreendeu. marvel mandou bem demais.</t>
+  </si>
+  <si>
+    <t>#@_mbheart foi aqui 
+https://t.co/gg4lulxgqf</t>
   </si>
 </sst>
 </file>
@@ -1812,11 +1812,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2157,13 +2158,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2200,8 +2201,8 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="A5" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2209,7 +2210,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2217,7 +2218,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2225,7 +2226,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2233,7 +2234,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2241,7 +2242,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2249,7 +2250,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2257,7 +2258,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2265,7 +2266,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2273,7 +2274,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2281,7 +2282,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2289,7 +2290,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2297,7 +2298,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2305,7 +2306,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2313,7 +2314,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2321,7 +2322,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2329,7 +2330,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2337,7 +2338,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2345,7 +2346,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2353,7 +2354,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2361,7 +2362,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2369,7 +2370,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2377,7 +2378,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2385,7 +2386,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2393,7 +2394,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2401,7 +2402,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2409,7 +2410,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2417,7 +2418,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2425,7 +2426,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2433,7 +2434,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2441,7 +2442,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2449,7 +2450,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2457,7 +2458,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2465,7 +2466,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2473,7 +2474,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2481,7 +2482,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2489,7 +2490,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2497,7 +2498,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2505,7 +2506,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2513,7 +2514,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2521,7 +2522,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2529,7 +2530,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2537,7 +2538,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2545,7 +2546,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2553,7 +2554,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2561,7 +2562,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2569,7 +2570,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2577,7 +2578,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2585,7 +2586,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2593,7 +2594,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -2601,7 +2602,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2609,7 +2610,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2617,7 +2618,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2625,7 +2626,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2633,7 +2634,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2641,7 +2642,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2649,7 +2650,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2657,7 +2658,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2665,7 +2666,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2673,7 +2674,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2681,7 +2682,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2689,7 +2690,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2697,7 +2698,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2705,7 +2706,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2713,7 +2714,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2721,7 +2722,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2729,7 +2730,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2737,7 +2738,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2745,7 +2746,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2753,7 +2754,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2761,7 +2762,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2769,7 +2770,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2777,7 +2778,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2785,7 +2786,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2793,7 +2794,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2801,7 +2802,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2809,7 +2810,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2817,7 +2818,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2825,7 +2826,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -2833,7 +2834,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2841,7 +2842,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2849,7 +2850,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2857,7 +2858,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2865,7 +2866,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -2873,7 +2874,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2881,7 +2882,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -2889,7 +2890,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2897,7 +2898,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2905,7 +2906,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -2913,7 +2914,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2921,7 +2922,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2929,7 +2930,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -2937,7 +2938,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2945,7 +2946,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -2953,7 +2954,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2961,7 +2962,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2969,7 +2970,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2977,7 +2978,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -2985,7 +2986,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -2993,7 +2994,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3001,7 +3002,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -3009,7 +3010,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -3017,7 +3018,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -3025,7 +3026,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -3033,7 +3034,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -3041,7 +3042,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3049,7 +3050,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3057,7 +3058,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -3065,7 +3066,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -3073,7 +3074,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -3081,7 +3082,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -3089,7 +3090,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -3097,7 +3098,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -3105,7 +3106,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -3113,7 +3114,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -3121,7 +3122,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3129,7 +3130,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3137,7 +3138,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3145,7 +3146,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3153,7 +3154,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -3161,7 +3162,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3169,7 +3170,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3177,7 +3178,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -3185,7 +3186,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3193,7 +3194,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3201,7 +3202,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3209,7 +3210,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3217,7 +3218,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3225,7 +3226,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3233,7 +3234,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -3241,7 +3242,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -3249,7 +3250,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -3257,7 +3258,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -3265,7 +3266,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3273,7 +3274,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -3281,7 +3282,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -3289,7 +3290,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3297,7 +3298,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3305,7 +3306,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3313,7 +3314,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3321,7 +3322,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -3329,7 +3330,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3337,7 +3338,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3345,7 +3346,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -3353,7 +3354,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -3361,7 +3362,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -3369,7 +3370,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3377,7 +3378,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3385,7 +3386,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -3393,7 +3394,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -3401,7 +3402,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3409,7 +3410,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3417,7 +3418,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3425,7 +3426,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -3433,7 +3434,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3441,7 +3442,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -3449,7 +3450,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -3457,7 +3458,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3465,7 +3466,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -3473,7 +3474,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3481,7 +3482,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -3489,7 +3490,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3497,7 +3498,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -3505,7 +3506,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -3513,7 +3514,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -3521,7 +3522,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3529,7 +3530,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -3537,7 +3538,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -3545,7 +3546,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3553,7 +3554,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -3561,7 +3562,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -3569,7 +3570,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3577,7 +3578,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -3585,7 +3586,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3593,7 +3594,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3601,7 +3602,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3609,7 +3610,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -3617,7 +3618,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -3625,7 +3626,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3633,7 +3634,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3641,7 +3642,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3649,7 +3650,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3657,7 +3658,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -3665,7 +3666,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -3673,7 +3674,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -3681,7 +3682,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -3689,7 +3690,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -3697,7 +3698,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -3705,7 +3706,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -3713,7 +3714,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -3721,7 +3722,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -3729,7 +3730,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -3737,7 +3738,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -3745,7 +3746,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -3753,7 +3754,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -3761,7 +3762,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -3769,7 +3770,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -3777,7 +3778,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -3785,7 +3786,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -3793,7 +3794,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -3801,7 +3802,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -3809,7 +3810,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -3817,7 +3818,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -3825,7 +3826,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -3833,7 +3834,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -3841,7 +3842,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -3849,7 +3850,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -3857,7 +3858,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -3865,7 +3866,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -3873,7 +3874,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -3881,7 +3882,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -3889,7 +3890,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -3897,7 +3898,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -3905,7 +3906,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -3913,7 +3914,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -3921,7 +3922,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -3929,7 +3930,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -3937,7 +3938,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -3945,7 +3946,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -3953,7 +3954,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -3961,7 +3962,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -3969,7 +3970,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -3977,7 +3978,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -3985,7 +3986,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -3993,7 +3994,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -4001,7 +4002,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -4009,7 +4010,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -4017,7 +4018,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -4025,7 +4026,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -4033,7 +4034,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -4041,7 +4042,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -4049,7 +4050,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -4057,7 +4058,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -4065,7 +4066,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -4073,7 +4074,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -4081,7 +4082,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -4089,7 +4090,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -4097,7 +4098,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -4105,7 +4106,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -4113,7 +4114,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -4121,7 +4122,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -4129,7 +4130,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -4137,7 +4138,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -4145,7 +4146,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -4153,7 +4154,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -4161,7 +4162,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -4169,7 +4170,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -4177,7 +4178,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -4185,7 +4186,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -4193,7 +4194,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -4201,7 +4202,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -4209,7 +4210,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -4217,7 +4218,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -4225,7 +4226,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -4233,7 +4234,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -4241,7 +4242,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -4249,7 +4250,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -4257,7 +4258,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -4265,7 +4266,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -4273,7 +4274,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -4281,7 +4282,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -4289,7 +4290,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -4297,7 +4298,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -4305,7 +4306,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -4313,7 +4314,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -4321,7 +4322,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -4329,7 +4330,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -4337,7 +4338,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -4345,7 +4346,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -4353,7 +4354,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -4361,7 +4362,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -4369,7 +4370,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -4377,7 +4378,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -4385,7 +4386,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -4393,7 +4394,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -4401,7 +4402,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -4409,7 +4410,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -4417,7 +4418,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -4425,7 +4426,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -4433,7 +4434,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -4441,7 +4442,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -4449,7 +4450,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -4457,7 +4458,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -4465,7 +4466,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -4473,7 +4474,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -4481,7 +4482,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -4489,7 +4490,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -4497,7 +4498,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -4505,7 +4506,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -4513,7 +4514,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -4521,7 +4522,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -4529,7 +4530,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -4537,7 +4538,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -4545,7 +4546,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -4553,7 +4554,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -4561,7 +4562,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -4569,7 +4570,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -4587,7 +4588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4599,7 +4600,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4607,7 +4608,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4615,7 +4616,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4623,7 +4624,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4631,7 +4632,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4639,7 +4640,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4647,7 +4648,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4655,7 +4656,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4663,7 +4664,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4671,7 +4672,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4679,7 +4680,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4687,7 +4688,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4695,7 +4696,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4703,7 +4704,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4711,7 +4712,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4719,7 +4720,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4727,7 +4728,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4735,7 +4736,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4743,7 +4744,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4751,7 +4752,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4759,7 +4760,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4767,7 +4768,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4775,7 +4776,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4783,7 +4784,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4791,7 +4792,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4799,7 +4800,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4807,7 +4808,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4815,7 +4816,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4823,7 +4824,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4831,7 +4832,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4839,7 +4840,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4847,7 +4848,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4855,7 +4856,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4863,7 +4864,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4871,7 +4872,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4879,7 +4880,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4887,7 +4888,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4895,7 +4896,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4903,7 +4904,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4911,7 +4912,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4919,7 +4920,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4927,7 +4928,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -4935,7 +4936,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4943,7 +4944,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4951,7 +4952,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4959,7 +4960,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4967,7 +4968,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4975,7 +4976,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4983,7 +4984,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4991,7 +4992,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4999,7 +5000,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5007,7 +5008,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -5015,7 +5016,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5023,7 +5024,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -5031,7 +5032,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5039,7 +5040,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5047,7 +5048,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5055,7 +5056,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -5063,7 +5064,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5071,7 +5072,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5079,7 +5080,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5087,7 +5088,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -5095,7 +5096,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -5103,7 +5104,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -5111,7 +5112,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -5119,7 +5120,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5127,7 +5128,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -5135,7 +5136,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -5143,7 +5144,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -5151,7 +5152,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -5159,7 +5160,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -5167,7 +5168,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -5175,7 +5176,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -5183,7 +5184,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -5191,7 +5192,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -5199,7 +5200,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -5207,7 +5208,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -5215,7 +5216,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -5223,7 +5224,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -5231,7 +5232,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -5239,7 +5240,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -5247,7 +5248,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -5255,7 +5256,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -5263,7 +5264,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -5271,7 +5272,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -5279,7 +5280,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -5287,7 +5288,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -5295,7 +5296,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -5303,7 +5304,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -5311,7 +5312,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -5319,7 +5320,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -5327,7 +5328,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -5335,7 +5336,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -5343,7 +5344,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -5351,7 +5352,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -5359,7 +5360,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -5367,7 +5368,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5375,7 +5376,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -5383,7 +5384,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -5391,7 +5392,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -5399,7 +5400,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -5407,7 +5408,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -5415,7 +5416,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -5423,7 +5424,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -5431,7 +5432,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -5439,7 +5440,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -5447,7 +5448,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5455,7 +5456,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5463,7 +5464,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5471,7 +5472,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5479,7 +5480,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5487,7 +5488,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5495,7 +5496,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5503,7 +5504,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -5511,7 +5512,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -5519,7 +5520,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -5527,7 +5528,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5535,7 +5536,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5543,7 +5544,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -5551,7 +5552,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5559,7 +5560,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5567,7 +5568,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5575,7 +5576,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5583,7 +5584,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5591,7 +5592,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5599,7 +5600,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -5607,7 +5608,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5615,7 +5616,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -5623,7 +5624,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -5631,7 +5632,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -5639,7 +5640,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -5647,7 +5648,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -5655,7 +5656,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -5663,7 +5664,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -5671,7 +5672,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -5679,7 +5680,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -5687,7 +5688,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -5695,7 +5696,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -5703,7 +5704,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -5711,7 +5712,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -5719,7 +5720,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -5727,7 +5728,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -5735,7 +5736,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -5743,7 +5744,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -5751,7 +5752,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -5759,7 +5760,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -5767,7 +5768,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -5775,7 +5776,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -5783,7 +5784,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5791,7 +5792,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -5799,7 +5800,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -5807,7 +5808,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -5815,7 +5816,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -5823,7 +5824,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -5831,7 +5832,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -5839,7 +5840,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -5847,7 +5848,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -5855,7 +5856,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -5863,7 +5864,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -5871,7 +5872,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -5879,7 +5880,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -5887,7 +5888,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -5895,7 +5896,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -5903,7 +5904,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -5911,7 +5912,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -5919,7 +5920,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -5927,7 +5928,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -5935,7 +5936,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -5943,7 +5944,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -5951,7 +5952,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -5959,7 +5960,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -5967,7 +5968,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -5975,7 +5976,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -5983,7 +5984,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -5991,7 +5992,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -5999,7 +6000,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -6007,7 +6008,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -6015,7 +6016,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -6023,7 +6024,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -6031,7 +6032,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -6039,7 +6040,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -6047,7 +6048,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -6055,7 +6056,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -6063,7 +6064,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -6071,7 +6072,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -6079,7 +6080,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -6087,7 +6088,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -6095,7 +6096,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -6103,7 +6104,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -6111,7 +6112,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -6119,7 +6120,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -6127,7 +6128,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -6135,7 +6136,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -6143,7 +6144,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -6151,7 +6152,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -6159,7 +6160,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -6167,7 +6168,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -6175,7 +6176,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -6183,7 +6184,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -6191,7 +6192,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -6199,7 +6200,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -6214,9 +6215,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6417,19 +6421,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FDC5507-8E0D-4BE2-86EE-C2F419E5DEF0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E59E816-EED6-4EBD-8DDA-C76E45C17171}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6454,9 +6454,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E59E816-EED6-4EBD-8DDA-C76E45C17171}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FDC5507-8E0D-4BE2-86EE-C2F419E5DEF0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>